--- a/OptionalSubjectsRepartition/PregatireDate/Formular opționale (răspunsuri).xlsx
+++ b/OptionalSubjectsRepartition/PregatireDate/Formular opționale (răspunsuri).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\my_github\uipath\proiect_rpa\OptionalSubjectsRepartition\PregatireDate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAA62E3-88A1-4561-B3A8-334D12C51152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E27F47-7E8E-4937-8AE3-345F95E36702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="945" yWindow="690" windowWidth="23070" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
